--- a/data/tumor-size/AOT00055226-mimic24/mimic24_tumor-size.xlsx
+++ b/data/tumor-size/AOT00055226-mimic24/mimic24_tumor-size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osumc-my.sharepoint.com/personal/wil407_osumc_edu/Documents/BuckeyeBox Data/mimic/data/AOT00055226-mimic24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C516807-FACB-41CF-82EA-73CB38E76549}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75BE352-EF6F-48F8-A349-8C521612C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,12 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="H238" sqref="H238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
@@ -510,7 +511,7 @@
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>45343</v>
       </c>
@@ -559,7 +560,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>45343</v>
       </c>
@@ -573,7 +574,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>45343</v>
       </c>
@@ -587,7 +588,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>45343</v>
       </c>
@@ -601,7 +602,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>45343</v>
       </c>
@@ -615,7 +616,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>45343</v>
       </c>
@@ -629,7 +630,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>45343</v>
       </c>
@@ -643,7 +644,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>45343</v>
       </c>
@@ -657,7 +658,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>45343</v>
       </c>
@@ -671,7 +672,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>45343</v>
       </c>
@@ -685,7 +686,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>45343</v>
       </c>
@@ -699,7 +700,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>45343</v>
       </c>
@@ -713,7 +714,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>45343</v>
       </c>
@@ -727,7 +728,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>45343</v>
       </c>
@@ -741,7 +742,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>45343</v>
       </c>
@@ -755,7 +756,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>45343</v>
       </c>
@@ -769,7 +770,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>45343</v>
       </c>
@@ -783,7 +784,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>45343</v>
       </c>
@@ -797,7 +798,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>45343</v>
       </c>
@@ -811,7 +812,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>45343</v>
       </c>
@@ -825,7 +826,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>45343</v>
       </c>
@@ -839,7 +840,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>45343</v>
       </c>
@@ -853,7 +854,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>45343</v>
       </c>
@@ -867,7 +868,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>45343</v>
       </c>
@@ -881,7 +882,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>45369</v>
       </c>
@@ -891,9 +892,6 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
       <c r="G26">
         <v>1</v>
       </c>
@@ -904,7 +902,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>45369</v>
       </c>
@@ -914,9 +912,6 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
       <c r="G27">
         <v>1</v>
       </c>
@@ -927,7 +922,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>45369</v>
       </c>
@@ -937,9 +932,6 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
       <c r="G28">
         <v>1</v>
       </c>
@@ -950,7 +942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>45369</v>
       </c>
@@ -960,9 +952,6 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
       <c r="G29">
         <v>1</v>
       </c>
@@ -973,7 +962,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>45369</v>
       </c>
@@ -983,9 +972,6 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
       <c r="G30">
         <v>1</v>
       </c>
@@ -996,7 +982,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>45369</v>
       </c>
@@ -1006,9 +992,6 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
       <c r="G31">
         <v>1</v>
       </c>
@@ -1019,7 +1002,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>45369</v>
       </c>
@@ -1029,9 +1012,6 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
       <c r="G32">
         <v>1</v>
       </c>
@@ -1042,7 +1022,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>45369</v>
       </c>
@@ -1052,9 +1032,6 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
       <c r="G33">
         <v>1</v>
       </c>
@@ -1065,7 +1042,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>45369</v>
       </c>
@@ -1075,9 +1052,6 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
       <c r="G34">
         <v>1</v>
       </c>
@@ -1088,7 +1062,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>45369</v>
       </c>
@@ -1098,9 +1072,6 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
       <c r="G35">
         <v>1</v>
       </c>
@@ -1111,7 +1082,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>45369</v>
       </c>
@@ -1121,9 +1092,6 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -1134,7 +1102,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>45369</v>
       </c>
@@ -1144,9 +1112,6 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
       <c r="G37">
         <v>1</v>
       </c>
@@ -1157,7 +1122,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>45369</v>
       </c>
@@ -1167,9 +1132,6 @@
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
       <c r="G38">
         <v>1</v>
       </c>
@@ -1180,7 +1142,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>45369</v>
       </c>
@@ -1190,9 +1152,6 @@
       <c r="C39">
         <v>5</v>
       </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
       <c r="G39">
         <v>1</v>
       </c>
@@ -1203,7 +1162,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>45369</v>
       </c>
@@ -1213,9 +1172,6 @@
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
       <c r="G40">
         <v>1</v>
       </c>
@@ -1226,7 +1182,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>45369</v>
       </c>
@@ -1236,9 +1192,6 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
@@ -1249,7 +1202,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>45369</v>
       </c>
@@ -1259,9 +1212,6 @@
       <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
       <c r="G42">
         <v>1</v>
       </c>
@@ -1272,7 +1222,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>45369</v>
       </c>
@@ -1282,9 +1232,6 @@
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
       <c r="G43">
         <v>1</v>
       </c>
@@ -1295,7 +1242,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>45369</v>
       </c>
@@ -1305,9 +1252,6 @@
       <c r="C44">
         <v>7</v>
       </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
       <c r="G44">
         <v>1</v>
       </c>
@@ -1318,7 +1262,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>45369</v>
       </c>
@@ -1328,9 +1272,6 @@
       <c r="C45">
         <v>7</v>
       </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -1341,7 +1282,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>45369</v>
       </c>
@@ -1351,9 +1292,6 @@
       <c r="C46">
         <v>7</v>
       </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
       <c r="G46">
         <v>1</v>
       </c>
@@ -1364,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <v>45369</v>
       </c>
@@ -1374,9 +1312,6 @@
       <c r="C47">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
       <c r="G47">
         <v>1</v>
       </c>
@@ -1387,7 +1322,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <v>45369</v>
       </c>
@@ -1397,9 +1332,6 @@
       <c r="C48">
         <v>8</v>
       </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
       <c r="G48">
         <v>1</v>
       </c>
@@ -1410,7 +1342,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>45369</v>
       </c>
@@ -1420,9 +1352,6 @@
       <c r="C49">
         <v>8</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
       <c r="G49">
         <v>1</v>
       </c>
@@ -1433,7 +1362,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>45371</v>
       </c>
@@ -1462,7 +1391,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>45371</v>
       </c>
@@ -1491,7 +1420,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>45371</v>
       </c>
@@ -1520,7 +1449,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>45371</v>
       </c>
@@ -1549,7 +1478,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>45371</v>
       </c>
@@ -1578,7 +1507,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="2">
         <v>45371</v>
       </c>
@@ -1607,7 +1536,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="2">
         <v>45371</v>
       </c>
@@ -1636,7 +1565,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <v>45371</v>
       </c>
@@ -1665,7 +1594,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <v>45371</v>
       </c>
@@ -1694,7 +1623,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <v>45371</v>
       </c>
@@ -1723,7 +1652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <v>45371</v>
       </c>
@@ -1752,7 +1681,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <v>45371</v>
       </c>
@@ -1781,7 +1710,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <v>45371</v>
       </c>
@@ -1810,7 +1739,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="2">
         <v>45371</v>
       </c>
@@ -1839,7 +1768,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="2">
         <v>45371</v>
       </c>
@@ -1868,7 +1797,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="2">
         <v>45371</v>
       </c>
@@ -1897,7 +1826,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="2">
         <v>45371</v>
       </c>
@@ -1926,7 +1855,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="2">
         <v>45371</v>
       </c>
@@ -1955,7 +1884,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>45371</v>
       </c>
@@ -1984,7 +1913,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>45371</v>
       </c>
@@ -2013,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="2">
         <v>45371</v>
       </c>
@@ -2042,7 +1971,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>45371</v>
       </c>
@@ -2071,7 +2000,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="2">
         <v>45371</v>
       </c>
@@ -2100,7 +2029,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2">
         <v>45371</v>
       </c>
@@ -2129,7 +2058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>45374</v>
       </c>
@@ -2155,7 +2084,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>45374</v>
       </c>
@@ -2181,7 +2110,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>45374</v>
       </c>
@@ -2207,7 +2136,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>45374</v>
       </c>
@@ -2233,7 +2162,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>45374</v>
       </c>
@@ -2259,7 +2188,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>45374</v>
       </c>
@@ -2285,7 +2214,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="2">
         <v>45374</v>
       </c>
@@ -2311,7 +2240,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="2">
         <v>45374</v>
       </c>
@@ -2337,7 +2266,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="2">
         <v>45374</v>
       </c>
@@ -2363,7 +2292,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="2">
         <v>45374</v>
       </c>
@@ -2389,7 +2318,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>45374</v>
       </c>
@@ -2415,7 +2344,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
         <v>45374</v>
       </c>
@@ -2441,7 +2370,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
         <v>45374</v>
       </c>
@@ -2467,7 +2396,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
         <v>45374</v>
       </c>
@@ -2493,7 +2422,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="2">
         <v>45374</v>
       </c>
@@ -2519,7 +2448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="2">
         <v>45374</v>
       </c>
@@ -2545,7 +2474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="2">
         <v>45374</v>
       </c>
@@ -2571,7 +2500,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="2">
         <v>45374</v>
       </c>
@@ -2597,7 +2526,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="2">
         <v>45374</v>
       </c>
@@ -2623,7 +2552,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="2">
         <v>45374</v>
       </c>
@@ -2649,7 +2578,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="2">
         <v>45374</v>
       </c>
@@ -2675,7 +2604,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="2">
         <v>45374</v>
       </c>
@@ -2701,7 +2630,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="2">
         <v>45374</v>
       </c>
@@ -2727,7 +2656,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="2">
         <v>45374</v>
       </c>
@@ -2753,7 +2682,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="2">
         <v>45377</v>
       </c>
@@ -2779,7 +2708,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="2">
         <v>45377</v>
       </c>
@@ -2805,7 +2734,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="2">
         <v>45377</v>
       </c>
@@ -2831,7 +2760,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="2">
         <v>45377</v>
       </c>
@@ -2857,7 +2786,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="2">
         <v>45377</v>
       </c>
@@ -2883,7 +2812,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="2">
         <v>45377</v>
       </c>
@@ -2909,7 +2838,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="2">
         <v>45377</v>
       </c>
@@ -2935,7 +2864,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="2">
         <v>45377</v>
       </c>
@@ -2961,7 +2890,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="2">
         <v>45377</v>
       </c>
@@ -2987,7 +2916,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="2">
         <v>45377</v>
       </c>
@@ -3013,7 +2942,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="2">
         <v>45377</v>
       </c>
@@ -3039,7 +2968,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="2">
         <v>45377</v>
       </c>
@@ -3065,7 +2994,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="2">
         <v>45377</v>
       </c>
@@ -3091,7 +3020,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="2">
         <v>45377</v>
       </c>
@@ -3117,7 +3046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="2">
         <v>45377</v>
       </c>
@@ -3143,7 +3072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="2">
         <v>45377</v>
       </c>
@@ -3169,7 +3098,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="2">
         <v>45377</v>
       </c>
@@ -3195,7 +3124,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="2">
         <v>45377</v>
       </c>
@@ -3218,10 +3147,10 @@
         <v>9</v>
       </c>
       <c r="I115">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="2">
         <v>45377</v>
       </c>
@@ -3247,7 +3176,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="2">
         <v>45377</v>
       </c>
@@ -3273,7 +3202,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="2">
         <v>45377</v>
       </c>
@@ -3299,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="2">
         <v>45377</v>
       </c>
@@ -3325,7 +3254,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="2">
         <v>45377</v>
       </c>
@@ -3351,7 +3280,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="2">
         <v>45377</v>
       </c>
@@ -3377,7 +3306,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="2">
         <v>45380</v>
       </c>
@@ -3403,7 +3332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="2">
         <v>45380</v>
       </c>
@@ -3429,7 +3358,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="2">
         <v>45380</v>
       </c>
@@ -3455,7 +3384,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="2">
         <v>45380</v>
       </c>
@@ -3481,7 +3410,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="2">
         <v>45380</v>
       </c>
@@ -3507,7 +3436,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="2">
         <v>45380</v>
       </c>
@@ -3533,7 +3462,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="2">
         <v>45380</v>
       </c>
@@ -3559,7 +3488,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="2">
         <v>45380</v>
       </c>
@@ -3585,7 +3514,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="2">
         <v>45380</v>
       </c>
@@ -3611,7 +3540,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="2">
         <v>45380</v>
       </c>
@@ -3637,7 +3566,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="2">
         <v>45380</v>
       </c>
@@ -3663,7 +3592,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="2">
         <v>45380</v>
       </c>
@@ -3689,7 +3618,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="2">
         <v>45380</v>
       </c>
@@ -3715,7 +3644,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="2">
         <v>45380</v>
       </c>
@@ -3741,7 +3670,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="2">
         <v>45380</v>
       </c>
@@ -3767,7 +3696,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="2">
         <v>45380</v>
       </c>
@@ -3793,7 +3722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="2">
         <v>45380</v>
       </c>
@@ -3819,7 +3748,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="2">
         <v>45380</v>
       </c>
@@ -3845,7 +3774,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="2">
         <v>45380</v>
       </c>
@@ -3871,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="2">
         <v>45380</v>
       </c>
@@ -3897,7 +3826,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="2">
         <v>45380</v>
       </c>
@@ -3923,7 +3852,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="2">
         <v>45380</v>
       </c>
@@ -3949,7 +3878,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="2">
         <v>45380</v>
       </c>
@@ -3975,7 +3904,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="2">
         <v>45380</v>
       </c>
@@ -4001,7 +3930,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="2">
         <v>45383</v>
       </c>
@@ -4027,7 +3956,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="2">
         <v>45383</v>
       </c>
@@ -4053,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="2">
         <v>45383</v>
       </c>
@@ -4079,7 +4008,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="2">
         <v>45383</v>
       </c>
@@ -4105,7 +4034,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="2">
         <v>45383</v>
       </c>
@@ -4131,7 +4060,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="2">
         <v>45383</v>
       </c>
@@ -4157,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="2">
         <v>45383</v>
       </c>
@@ -4183,7 +4112,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="2">
         <v>45383</v>
       </c>
@@ -4209,7 +4138,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="2">
         <v>45383</v>
       </c>
@@ -4235,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="2">
         <v>45383</v>
       </c>
@@ -4261,7 +4190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="2">
         <v>45383</v>
       </c>
@@ -4287,7 +4216,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="2">
         <v>45383</v>
       </c>
@@ -4313,7 +4242,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="2">
         <v>45383</v>
       </c>
@@ -4339,7 +4268,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="2">
         <v>45383</v>
       </c>
@@ -4365,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="2">
         <v>45383</v>
       </c>
@@ -4391,7 +4320,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="2">
         <v>45383</v>
       </c>
@@ -4417,7 +4346,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="2">
         <v>45383</v>
       </c>
@@ -4443,7 +4372,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="2">
         <v>45383</v>
       </c>
@@ -4469,7 +4398,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="2">
         <v>45383</v>
       </c>
@@ -4495,7 +4424,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="2">
         <v>45383</v>
       </c>
@@ -4521,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="2">
         <v>45383</v>
       </c>
@@ -4547,7 +4476,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="2">
         <v>45383</v>
       </c>
@@ -4573,7 +4502,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="2">
         <v>45383</v>
       </c>
@@ -4599,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="2">
         <v>45383</v>
       </c>
@@ -4622,6 +4551,2022 @@
         <v>0</v>
       </c>
       <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>8</v>
+      </c>
+      <c r="I170">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>1.2</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>9.6</v>
+      </c>
+      <c r="I173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>1.9</v>
+      </c>
+      <c r="I174">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>10.1</v>
+      </c>
+      <c r="I176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I177">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>12.8</v>
+      </c>
+      <c r="I179">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>10.4</v>
+      </c>
+      <c r="I180">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>8.6</v>
+      </c>
+      <c r="I181">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>9.4</v>
+      </c>
+      <c r="I184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>3.3</v>
+      </c>
+      <c r="I185">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>14.2</v>
+      </c>
+      <c r="I186">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I187">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>3.3</v>
+      </c>
+      <c r="I190">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>8</v>
+      </c>
+      <c r="I191">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>8</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I194">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>11.9</v>
+      </c>
+      <c r="I197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>1.3</v>
+      </c>
+      <c r="I198">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>11.5</v>
+      </c>
+      <c r="I200">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+      <c r="D203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>13</v>
+      </c>
+      <c r="I203">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>4</v>
+      </c>
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>11.8</v>
+      </c>
+      <c r="I204">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>4</v>
+      </c>
+      <c r="D205" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>10</v>
+      </c>
+      <c r="I205">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>10.5</v>
+      </c>
+      <c r="I208">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" t="s">
+        <v>15</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1.9</v>
+      </c>
+      <c r="I209">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" t="s">
+        <v>15</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>15.8</v>
+      </c>
+      <c r="I210">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>7.2</v>
+      </c>
+      <c r="I211">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" t="s">
+        <v>15</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>3.6</v>
+      </c>
+      <c r="I214">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>7.1</v>
+      </c>
+      <c r="I215">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" t="s">
+        <v>13</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218">
+        <v>25.3</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>12</v>
+      </c>
+      <c r="I218">
+        <v>9</v>
+      </c>
+      <c r="J218">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F219">
+        <v>26.6</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220">
+        <v>27.1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221">
+        <v>26.1</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>14</v>
+      </c>
+      <c r="I221">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J221">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222">
+        <v>26.3</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223">
+        <v>26</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224">
+        <v>23.3</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>14.1</v>
+      </c>
+      <c r="I224">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J224">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225">
+        <v>24.6</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226">
+        <v>25.3</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227">
+        <v>24.3</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>13.8</v>
+      </c>
+      <c r="I227">
+        <v>11.1</v>
+      </c>
+      <c r="J227">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228">
+        <v>22.3</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>12.9</v>
+      </c>
+      <c r="I228">
+        <v>12.6</v>
+      </c>
+      <c r="J228">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>11.2</v>
+      </c>
+      <c r="I229">
+        <v>11</v>
+      </c>
+      <c r="J229">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230" t="s">
+        <v>11</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230">
+        <v>25.4</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231">
+        <v>23.4</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232">
+        <v>23.8</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>12.1</v>
+      </c>
+      <c r="I232">
+        <v>11.4</v>
+      </c>
+      <c r="J232">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>11</v>
+      </c>
+      <c r="E233" t="s">
+        <v>15</v>
+      </c>
+      <c r="F233">
+        <v>24.8</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>11</v>
+      </c>
+      <c r="E234" t="s">
+        <v>15</v>
+      </c>
+      <c r="F234">
+        <v>20.7</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I234">
+        <v>12.3</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>11</v>
+      </c>
+      <c r="E235" t="s">
+        <v>15</v>
+      </c>
+      <c r="F235">
+        <v>25.8</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>6.7</v>
+      </c>
+      <c r="I235">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J235">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+      <c r="D236" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236">
+        <v>22.9</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>7</v>
+      </c>
+      <c r="D237" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237">
+        <v>21.8</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>7</v>
+      </c>
+      <c r="D238" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" t="s">
+        <v>15</v>
+      </c>
+      <c r="F238">
+        <v>25.1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>3.9</v>
+      </c>
+      <c r="I238">
+        <v>3.8</v>
+      </c>
+      <c r="J238">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239">
+        <v>22.7</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>9.5</v>
+      </c>
+      <c r="I239">
+        <v>6.8</v>
+      </c>
+      <c r="J239">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240">
+        <v>26.4</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241">
+        <v>26.3</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
         <v>0</v>
       </c>
     </row>
